--- a/WebApplicationTestingProject/bin/com/OrangeHRMApplicationValid_InvalidDataExcelDetails/OrangeHRMApplicationValid_InvalidDataExcelFile.xlsx
+++ b/WebApplicationTestingProject/bin/com/OrangeHRMApplicationValid_InvalidDataExcelDetails/OrangeHRMApplicationValid_InvalidDataExcelFile.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\OHRMAutomation\WebApplicationTestingProject\src\com\OrangeHRMApplicationValid_InvalidDataExcelDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51CBB0-5B36-476A-8C55-6766BE040BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F0C3B393-E4A9-4812-B64C-278EF3718F01}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2770" windowWidth="14400" windowHeight="7310" xr2:uid="{CE2B7C12-16B9-43CC-BA81-712F2AD15F1F}"/>
+    <workbookView activeTab="1" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{CE2B7C12-16B9-43CC-BA81-712F2AD15F1F}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,21 +35,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Result</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Expected_LoginpanelText</t>
+  </si>
+  <si>
+    <t>Actual_LoginPanelText</t>
+  </si>
+  <si>
+    <t>LoginPage_TestResult</t>
+  </si>
+  <si>
+    <t>LOGIN Panel</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Livetech@123</t>
+  </si>
+  <si>
+    <t>sailu@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,15 +89,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,21 +111,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -151,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -203,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -314,21 +359,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -345,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -397,40 +442,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA5B42-7E98-4B0D-AB2B-4AA9C686C321}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA5B42-7E98-4B0D-AB2B-4AA9C686C321}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row customFormat="1" r="1" s="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -445,6 +499,63 @@
       <c r="B6" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248EB07-6559-496F-A37F-304368DCC980}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{BEC8C2D0-40ED-45A1-BE43-1DAFE6DEFAE3}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{2B4104C8-CEE8-44D1-9CE0-5A3BAFA81A59}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{A530EC74-0F44-4F96-A534-FE64381AFD3D}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>